--- a/239289/Business data processing/EPBTemperatures.xlsx
+++ b/239289/Business data processing/EPBTemperatures.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-04.CAMPUS.000\Desktop\People\239289\Business data processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericp\Eric\Repositories\people\239289\Business data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B224B99-E338-42B4-AEE4-AD691F5FBDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF73244-2A8B-4949-A5C7-E8BDD2461699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperatures" sheetId="2" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart" sheetId="4" r:id="rId2"/>
+    <sheet name="Statistics" sheetId="1" r:id="rId3"/>
+    <sheet name="Quarterly" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Amplitude">Temperatures!$F$2:$F$49</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Month</t>
   </si>
@@ -124,34 +125,76 @@
     <t>Amplitude</t>
   </si>
   <si>
-    <t>Average of the temperatures  of  all of the days and nights of the  year</t>
-  </si>
-  <si>
-    <t>Average of the temperatures  of  all of the nights of the  year</t>
-  </si>
-  <si>
-    <t>Average of the temperatures  of  all of the days of the  year</t>
-  </si>
-  <si>
-    <t>Smallest temperature differnce of the days and nights of the year</t>
-  </si>
-  <si>
-    <t>Largest temperature difference of days and nights of the year</t>
-  </si>
-  <si>
-    <t>Number of "hot" weeks (temp &gt; 30°c)</t>
-  </si>
-  <si>
-    <t>Number of "cold" weeks (temp &lt; 5°c)</t>
-  </si>
-  <si>
-    <t>Difference in temperature of the hottest and coldest weeks of the year of the year</t>
-  </si>
-  <si>
     <t>Highest average weekly temperature of the year</t>
   </si>
   <si>
-    <t>Index of highest number (after first row)</t>
+    <t>Average annual daytime temperatures</t>
+  </si>
+  <si>
+    <t>Average annual nighttime temperatures</t>
+  </si>
+  <si>
+    <t>Average annual temperatures</t>
+  </si>
+  <si>
+    <t>Temperature difference between highest and lowest annual temperatures</t>
+  </si>
+  <si>
+    <t>Index of the week of the highest temperature (after first row)</t>
+  </si>
+  <si>
+    <t>Month of the week of the highest temperature</t>
+  </si>
+  <si>
+    <t>Week of the month of the highest temperature</t>
+  </si>
+  <si>
+    <t>Number of "hot" days in the year</t>
+  </si>
+  <si>
+    <t>Number of "cold" days in the year</t>
+  </si>
+  <si>
+    <t>Highest average weekly Amplitude of the year</t>
+  </si>
+  <si>
+    <t>Lowest average weekly amplitude of the year</t>
+  </si>
+  <si>
+    <t>Feeling</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Day time (avg)</t>
+  </si>
+  <si>
+    <t>Night time (avg)</t>
+  </si>
+  <si>
+    <t>Average temp</t>
+  </si>
+  <si>
+    <t>Half of year and time</t>
+  </si>
+  <si>
+    <t>First half, day time</t>
+  </si>
+  <si>
+    <t>Second half, night time</t>
+  </si>
+  <si>
+    <t>First half, night time</t>
+  </si>
+  <si>
+    <t>Second half, day time</t>
   </si>
 </sst>
 </file>
@@ -159,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,13 +241,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -235,6 +278,37 @@
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -246,6 +320,1422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> annual temperatures per week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Day-time temperatures</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Temperatures!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3125-4D50-8411-566B546E5686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night-time temperatures</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Temperatures!$E$2:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3125-4D50-8411-566B546E5686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1773824847"/>
+        <c:axId val="1773831087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1773824847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Week of the year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773831087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1773831087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> (Centigrade)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773824847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82A1EE5-C1A3-4557-8465-06B576F174B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDE577DE-E882-4258-87B0-6986BFCC2A01}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0">
+  <autoFilter ref="A1:G49" xr:uid="{BDE577DE-E882-4258-87B0-6986BFCC2A01}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6530A1E0-361D-419F-A45D-827C80EB48AF}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{841F5A39-55BB-4B49-A26D-B8B34A4A6D8D}" name="Week"/>
+    <tableColumn id="3" xr3:uid="{A2EFCCFC-847E-4E24-BB7F-D4CFF60D2147}" name="WeekNo"/>
+    <tableColumn id="4" xr3:uid="{D7AA5B6B-A030-4DF5-BF50-0741EB509E03}" name="TempDay"/>
+    <tableColumn id="5" xr3:uid="{778F94AB-FD15-4E36-A06C-3283EAD304F0}" name="TempNight" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{BDD3EA8B-F193-4431-AF36-02D9B4B6731E}" name="Amplitude">
+      <calculatedColumnFormula>ABS(D2-E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3D742697-BC7E-467E-80B6-2A08BDBFEDAF}" name="Feeling" dataDxfId="9">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7161CCEE-BA4F-4454-BC86-573CE71616F4}" name="Table2" displayName="Table2" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{7161CCEE-BA4F-4454-BC86-573CE71616F4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C228F6BD-88E0-4537-B4F7-3F5F55EBC522}" name="Data"/>
+    <tableColumn id="2" xr3:uid="{1ADB30F8-2282-467B-ACD7-C9A5D7EECACA}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E639BE4-27A6-481A-A135-392BBFFDB95C}" name="Table3" displayName="Table3" ref="C1:D6" totalsRowCount="1">
+  <autoFilter ref="C1:D5" xr:uid="{9E639BE4-27A6-481A-A135-392BBFFDB95C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04E8DD6C-83A2-4B19-979F-0A4FEF11CCCD}" name="Data" totalsRowFunction="custom" totalsRowDxfId="8">
+      <totalsRowFormula>_xlfn.CONCAT("Highest temperature: ", C2, " degrees Centigrade, month: ", TEXT(DATE(2024,C4,1),"MMMM"), ", week: ",C5)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{76F37216-CE3A-4D2B-B19C-358B93C56172}" name="Description" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EC8106D-69F9-48CD-BAEA-615D0A1133C1}" name="Table4" displayName="Table4" ref="E1:F5" totalsRowShown="0">
+  <autoFilter ref="E1:F5" xr:uid="{5EC8106D-69F9-48CD-BAEA-615D0A1133C1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{974D866A-DC60-4876-875B-F064D036481B}" name="Average temp" dataDxfId="4">
+      <calculatedColumnFormula>SUMIF(NWeek, "&lt;=24", TDay)/24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E0F7F582-DD01-4DC8-8AA9-738E4EFBE913}" name="Half of year and time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7258FC1-38DE-46F7-B03C-E008034152DE}" name="Table5" displayName="Table5" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{F7258FC1-38DE-46F7-B03C-E008034152DE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2C107C5F-FEC6-41BE-BA1D-7DE878C9B7EC}" name="Quarter"/>
+    <tableColumn id="2" xr3:uid="{84398ED0-ED5A-4FE4-9F04-DD9AE5A2997F}" name="Day time (avg)" dataDxfId="6">
+      <calculatedColumnFormula>AVERAGE(INDEX(TDay,1+($A2-1)*12):INDEX(TDay,A2*12))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2847C2F0-4D0B-48F8-80C8-DA7DB49ADE1E}" name="Night time (avg)" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE(INDEX(TNight,1+($A2-1)*12):INDEX(TNight,A2*12))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,22 +2001,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E225920B-42AB-42B1-8ADB-66A8E6A49924}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +2034,11 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -560,15 +2052,18 @@
         <v>-8</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">D2-INT(NORMINV(RAND(),5,1))</f>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F2">
-        <f ca="1">ABS(D2-E2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>ABS(D2-E2)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -579,15 +2074,18 @@
         <v>-5</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E49" ca="1" si="0">D3-INT(NORMINV(RAND(),5,1))</f>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F49" ca="1" si="1">ABS(D3-E3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F49" si="0">ABS(D3-E3)</f>
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -598,15 +2096,18 @@
         <v>-3</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -617,15 +2118,18 @@
         <v>-4</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -639,15 +2143,18 @@
         <v>-2</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>-6</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -658,15 +2165,18 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -677,15 +2187,18 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -696,15 +2209,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -718,15 +2234,18 @@
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -737,15 +2256,18 @@
         <v>7</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -756,15 +2278,18 @@
         <v>8</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -775,15 +2300,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>-1</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -797,15 +2325,18 @@
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -816,15 +2347,18 @@
         <v>7</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -835,15 +2369,18 @@
         <v>9</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -854,15 +2391,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -876,15 +2416,18 @@
         <v>15</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -895,15 +2438,18 @@
         <v>13</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -914,15 +2460,18 @@
         <v>15</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -933,15 +2482,18 @@
         <v>18</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -955,15 +2507,18 @@
         <v>23</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -974,15 +2529,18 @@
         <v>24</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -993,15 +2551,18 @@
         <v>26</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1012,15 +2573,18 @@
         <v>27</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1034,15 +2598,18 @@
         <v>31</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1053,15 +2620,18 @@
         <v>32</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1072,15 +2642,18 @@
         <v>31</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1091,15 +2664,18 @@
         <v>28</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1113,15 +2689,18 @@
         <v>25</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1132,15 +2711,18 @@
         <v>27</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1151,15 +2733,18 @@
         <v>27</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>4</v>
       </c>
@@ -1170,15 +2755,18 @@
         <v>25</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1192,15 +2780,18 @@
         <v>19</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2</v>
       </c>
@@ -1211,15 +2802,18 @@
         <v>18</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1230,15 +2824,18 @@
         <v>21</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>4</v>
       </c>
@@ -1249,15 +2846,18 @@
         <v>18</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1271,15 +2871,18 @@
         <v>14</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1290,15 +2893,18 @@
         <v>13</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>warm</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -1309,15 +2915,18 @@
         <v>7</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -1328,15 +2937,18 @@
         <v>4</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>-1</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1350,15 +2962,18 @@
         <v>3</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2</v>
       </c>
@@ -1369,15 +2984,18 @@
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>3</v>
       </c>
@@ -1388,15 +3006,18 @@
         <v>-2</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>4</v>
       </c>
@@ -1407,15 +3028,18 @@
         <v>-3</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1429,15 +3053,18 @@
         <v>-6</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>-10</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>2</v>
       </c>
@@ -1448,15 +3075,18 @@
         <v>-5</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>3</v>
       </c>
@@ -1467,15 +3097,18 @@
         <v>-6</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>4</v>
       </c>
@@ -1486,212 +3119,347 @@
         <v>-7</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(Table1[[#This Row],[TempDay]]&gt;10, "warm", "cold")</f>
+        <v>cold</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:E49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51B7C5-784F-4446-B094-1C76C80A48E9}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <f>AVERAGE(TDay)</f>
-        <v>10.875</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1">
-        <f>LARGE(TDay,1)</f>
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f ca="1">AVERAGE(TNight)</f>
-        <v>6.4375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <f>MATCH(D1,TDay,0)</f>
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">AVERAGE(TDay+TNight)</f>
-        <v>17.3125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <f>INT((D2+3)/4)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">LARGE(Amplitude, 1)</f>
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="str">
-        <f>_xlfn.CONCAT("Highest temperature: ", D1, " degrees Centigrade, month: ", D3, " week: ", (D2+4)-D3*4)</f>
-        <v>Highest temperature: 32 degrees Centigrade, month: 7 week: 2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">SMALL(Amplitude,1)</f>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>LARGE(TDay,1)-SMALL(TDay,1)</f>
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>COUNTIF(TDay, "&lt;-5")</f>
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>COUNTIF(TDay, "&gt;30")</f>
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f>AVERAGE(TDay)</f>
+        <v>10.875</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <f>LARGE(Temperatures,1)</f>
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUMIF(NWeek, "&lt;=24", TDay)/24</f>
+        <v>8.625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>AVERAGE(TNight)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>MATCH(C2,TDay,0)</f>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUMIF(NWeek, "&gt;24", TDay)/24</f>
+        <v>13.125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" cm="1">
+        <f t="array" ref="A4">AVERAGE(TDay+TNight)</f>
+        <v>17.208333333333332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <f>INT((C3)/4)+1</f>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUMIF(NWeek, "&lt;=24", TNight)/24</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>LARGE(Amplitude,1)</f>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <f>(C3)-((C4-1)*4)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUMIF(NWeek, "&gt;24", TNight)/24</f>
+        <v>8.25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>SMALL(Amplitude,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.CONCAT("Highest temperature: ", C2, " degrees Centigrade, month: ", TEXT(DATE(2024,C4,1),"MMMM"), ", week: ",C5)</f>
+        <v>Highest temperature: 32 degrees Centigrade, month: July, week: 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>LARGE(Temperatures,1) -SMALL(Temperatures,1)</f>
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>COUNTIF(Temperatures, "&gt;30")</f>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>COUNTIF(Temperatures,"&lt;-5")</f>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3:E4 E5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A435E7E-1E98-4F92-A2A5-87C59C1F2793}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>AVERAGE(INDEX(TDay,1+($A2-1)*12):INDEX(TDay,A2*12))</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="C2">
-        <f ca="1">AVERAGE(INDEX(TNight,1+($A2-1)*12):INDEX(TNight,B2*12))</f>
-        <v>-3.5454545454545454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>AVERAGE(INDEX(TNight,1+($A2-1)*12):INDEX(TNight,A2*12))</f>
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>AVERAGE(INDEX(TDay,1+($A3-1)*12):INDEX(TDay,A3*12))</f>
         <v>16.333333333333332</v>
       </c>
-      <c r="C3" t="e">
-        <f>AVERAGE(INDEX(TNight,1+($A3-1)*12):INDEX(TNight,B3*12))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <f>AVERAGE(INDEX(TNight,1+($A3-1)*12):INDEX(TNight,A3*12))</f>
+        <v>12.083333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>AVERAGE(INDEX(TDay,1+($A4-1)*12):INDEX(TDay,A4*12))</f>
         <v>25.166666666666668</v>
       </c>
-      <c r="C4" t="e">
-        <f>AVERAGE(INDEX(TNight,1+($A4-1)*12):INDEX(TNight,B4*12))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>AVERAGE(INDEX(TNight,1+($A4-1)*12):INDEX(TNight,A4*12))</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>AVERAGE(INDEX(TDay,1+($A5-1)*12):INDEX(TDay,A5*12))</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="C5">
-        <f ca="1">AVERAGE(INDEX(TNight,1+($A5-1)*12):INDEX(TNight,B5*12))</f>
-        <v>16.079999999999998</v>
+      <c r="C5" s="1">
+        <f>AVERAGE(INDEX(TNight,1+($A5-1)*12):INDEX(TNight,A5*12))</f>
+        <v>-3.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>